--- a/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_en_Bourgogne-Franche-Comté/Pandémie_de_Covid-19_en_Bourgogne-Franche-Comté.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Pandémie_de_Covid-19_en_Bourgogne-Franche-Comté/Pandémie_de_Covid-19_en_Bourgogne-Franche-Comté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bourgogne-Franche-Comt%C3%A9</t>
+          <t>Pandémie_de_Covid-19_en_Bourgogne-Franche-Comté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente la situation en ce qui concerne la pandémie de maladie à coronavirus de 2019-2020 (COVID-19) en Bourgogne-Franche-Comté
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bourgogne-Franche-Comt%C3%A9</t>
+          <t>Pandémie_de_Covid-19_en_Bourgogne-Franche-Comté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,28 +523,30 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le 27 février, le ministère des Solidarités et de la Santé indique que quatre patients diagnostiqués positifs à la Covid-19 sont pris en charge au CHU de Dijon. Deux de ces patients sont en relation avec le foyer épidémique de l'Oise, l'un des premiers identifiés en France[1].
-Le 28 février, un cinquième patient diagnostiqué est accueilli au CHU de Dijon[2].
-Le 1er mars, cinq nouveaux cas sont hospitalisés au CHU de Dijon, portant le nombre de personnes infectées à 10 dans la région[3],[4].
-Le 4 mars, une première patiente est hospitalisée en Franche-Comté à l'hôpital Nord Franche-Comté de Trévenans : il s'agit d'une Belfortaine de 48 ans ayant participé au rassemblement évangélique de Mulhouse[5],[6]. Un premier cas est également confirmé au CHU de Besançon en lien avec le foyer de contagion de Mulhouse[7].
-Le 5 mars, 25 nouveaux cas sont annoncés par l'Agence régionale de santé, portant à 44 le nombre de personnes infectées par le virus en Bourgogne-Franche-Comté[8]. Selon l'ARS, « Au regard des premières investigations, la plupart de ces nouveaux cas confirmés auraient un lien avec le rassemblement cultuel à l’église évangélique Porte ouverte chrétienne à Bourtzwiller (Mulhouse) entre le 17 et le 24 février ».
-Le 7 mars, survient l'annonce que 10 résidents d'un EHPAD à Thise (Doubs) sont contaminés, probablement par une aide-soignante ayant participé au rassemblement évangélique[9].
-Le 8 mars, le nombre de cas diagnostiqués dans la région atteint 112[10].
-Le lundi 9 mars, le CHU de Besançon active le plan blanc[11].
-Le 10 mars, le premier décès lié à la Covid-19 en région Bourgogne-Franche-Comté survient dans l'Yonne à l'hôpital de Sens[12]. il s'agit d'un homme de plus de 80 ans domicilié en Seine-et-Marne, dans la région voisine d'Île-de-France.
-Le 11 mars, deux nouveaux décès de patients résidant dans le Doubs et dans le Jura sont enregistrés, le total régional de décès liés à la Covid-19 étant désormais de 3[13].
-Le 12 mars, le plan blanc est déclenché à l'Hôpital Nord Franche-Comté, situé entre Belfort et Montbéliard[14].
-Le premier tour des élections municipales se déroule le dimanche 15 mars avec une participation très basse dans la région (48,7%), en baisse de près de 25 points par rapport au scrutin précédent (64%)[15].
-Le 16 mars, le CHU de Dijon déclenche à son tour le plan blanc[16].
-Le 17 mars, au premier jour du confinement, un premier décès est enregistré à Dijon[17]. Avec 4 nouveaux décès dans la région depuis la veille, le cumul de personnes décédées s'élève à 10.
-Le 17 mars, le site de production automobile de PSA à Sochaux est fermé pour la première fois de son histoire[18].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le 27 février, le ministère des Solidarités et de la Santé indique que quatre patients diagnostiqués positifs à la Covid-19 sont pris en charge au CHU de Dijon. Deux de ces patients sont en relation avec le foyer épidémique de l'Oise, l'un des premiers identifiés en France.
+Le 28 février, un cinquième patient diagnostiqué est accueilli au CHU de Dijon.
+Le 1er mars, cinq nouveaux cas sont hospitalisés au CHU de Dijon, portant le nombre de personnes infectées à 10 dans la région,.
+Le 4 mars, une première patiente est hospitalisée en Franche-Comté à l'hôpital Nord Franche-Comté de Trévenans : il s'agit d'une Belfortaine de 48 ans ayant participé au rassemblement évangélique de Mulhouse,. Un premier cas est également confirmé au CHU de Besançon en lien avec le foyer de contagion de Mulhouse.
+Le 5 mars, 25 nouveaux cas sont annoncés par l'Agence régionale de santé, portant à 44 le nombre de personnes infectées par le virus en Bourgogne-Franche-Comté. Selon l'ARS, « Au regard des premières investigations, la plupart de ces nouveaux cas confirmés auraient un lien avec le rassemblement cultuel à l’église évangélique Porte ouverte chrétienne à Bourtzwiller (Mulhouse) entre le 17 et le 24 février ».
+Le 7 mars, survient l'annonce que 10 résidents d'un EHPAD à Thise (Doubs) sont contaminés, probablement par une aide-soignante ayant participé au rassemblement évangélique.
+Le 8 mars, le nombre de cas diagnostiqués dans la région atteint 112.
+Le lundi 9 mars, le CHU de Besançon active le plan blanc.
+Le 10 mars, le premier décès lié à la Covid-19 en région Bourgogne-Franche-Comté survient dans l'Yonne à l'hôpital de Sens. il s'agit d'un homme de plus de 80 ans domicilié en Seine-et-Marne, dans la région voisine d'Île-de-France.
+Le 11 mars, deux nouveaux décès de patients résidant dans le Doubs et dans le Jura sont enregistrés, le total régional de décès liés à la Covid-19 étant désormais de 3.
+Le 12 mars, le plan blanc est déclenché à l'Hôpital Nord Franche-Comté, situé entre Belfort et Montbéliard.
+Le premier tour des élections municipales se déroule le dimanche 15 mars avec une participation très basse dans la région (48,7%), en baisse de près de 25 points par rapport au scrutin précédent (64%).
+Le 16 mars, le CHU de Dijon déclenche à son tour le plan blanc.
+Le 17 mars, au premier jour du confinement, un premier décès est enregistré à Dijon. Avec 4 nouveaux décès dans la région depuis la veille, le cumul de personnes décédées s'élève à 10.
+Le 17 mars, le site de production automobile de PSA à Sochaux est fermé pour la première fois de son histoire.
 La barre des 100 morts est dépassée le 25 mars.
 5 patients sont transférés par avion à l'étranger du 26 au 28 mars dont 4 vers la Suisse (Lausanne, Fribourg et Neuchâtel).
-41 patients sont transférés par train, avion et hélicoptère vers des hôpitaux de la région Auvergne-Rhône-Alpes entre le 27 et le 30 mars : 22 transferts de patients opérés par le CHU de Besançon vers les hôpitaux de Clermont-Ferrand et Grenoble et 18 par le CHU de Dijon vers les hôpitaux de Clermont-Ferrand, Montluçon, Moulins et Vichy[19],[20].
+41 patients sont transférés par train, avion et hélicoptère vers des hôpitaux de la région Auvergne-Rhône-Alpes entre le 27 et le 30 mars : 22 transferts de patients opérés par le CHU de Besançon vers les hôpitaux de Clermont-Ferrand et Grenoble et 18 par le CHU de Dijon vers les hôpitaux de Clermont-Ferrand, Montluçon, Moulins et Vichy,.
 10 patients sont transférés par avion vers la région Provence-Alpes-Côte d'Azur entre le 28 et le 30 mars.
-Au 1er avril, un quart des résidents de l'EHPAD de Thise sont décédés, soit 25 personnes[21].
+Au 1er avril, un quart des résidents de l'EHPAD de Thise sont décédés, soit 25 personnes.
 Le 3 avril, l'ARS annonce 217 décès hors hôpitaux dans les Ehpad et établissements médico-sociaux, qui viennent s'ajouter aux 303 victimes recensées dans les hôpitaux, soit un total de 520 morts dans la région .</t>
         </is>
       </c>
@@ -543,7 +557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bourgogne-Franche-Comt%C3%A9</t>
+          <t>Pandémie_de_Covid-19_en_Bourgogne-Franche-Comté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,13 +577,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sanitaires
-Le 4 mars, la direction des EHPAD de Scey-sur-Saône-et-Saint-Albin, Dampierre-sur-Salon et Saulx (Haute-Saône) met en place l'interdiction de rendre visite aux résidents.
+          <t>Sanitaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le 4 mars, la direction des EHPAD de Scey-sur-Saône-et-Saint-Albin, Dampierre-sur-Salon et Saulx (Haute-Saône) met en place l'interdiction de rendre visite aux résidents.
 À la suite de la révélation de 10 cas de contamination au sein de la maison de retraite Vill'alizé de Thise, le maire de cette commune a pris le 7 mars un arrêté interdisant les rassemblements de plus de 50 personnes.
-Le 13 mars, les préfets du Doubs, du Territoire de Belfort et de la Haute-Saône interdisent tout rassemblement de plus de 50 personnes en milieu clos (au lieu de la limite de 100 personnes prise au niveau national).
-Économiques
-Le 13 mars, la présidente de la région Marie-Guite Dufay annonce la mise à disposition de 80 millions d'euros pour les entreprises affectées par la crise.
-Le 10 juin, le conseil régional annonce la mise en place par le Crous Bourgogne-Franche-Comté d'un fonds d'urgence de 270 000 € destiné aux étudiants précaires[22].</t>
+Le 13 mars, les préfets du Doubs, du Territoire de Belfort et de la Haute-Saône interdisent tout rassemblement de plus de 50 personnes en milieu clos (au lieu de la limite de 100 personnes prise au niveau national).</t>
         </is>
       </c>
     </row>
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bourgogne-Franche-Comt%C3%A9</t>
+          <t>Pandémie_de_Covid-19_en_Bourgogne-Franche-Comté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,17 +610,56 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Mesures locales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Économiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le 13 mars, la présidente de la région Marie-Guite Dufay annonce la mise à disposition de 80 millions d'euros pour les entreprises affectées par la crise.
+Le 10 juin, le conseil régional annonce la mise en place par le Crous Bourgogne-Franche-Comté d'un fonds d'urgence de 270 000 € destiné aux étudiants précaires.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_en_Bourgogne-Franche-Comté</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_en_Bourgogne-Franche-Comt%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Nouveaux cas quotidiens
-Hospitalisations
-Décès
-Réanimations
-Au 31 décembre 2018, 198 places sont disponibles dans les services de réanimation de la région[23] dont 57 lits à Dijon, 40 à Besançon et 25 à l'hôpital Nord Franche-Comté situé entre Belfort et Montbéliard.
-Statistiques par départements</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Réanimations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au 31 décembre 2018, 198 places sont disponibles dans les services de réanimation de la région dont 57 lits à Dijon, 40 à Besançon et 25 à l'hôpital Nord Franche-Comté situé entre Belfort et Montbéliard.
+</t>
         </is>
       </c>
     </row>
